--- a/2.표준사전/3.KCURE_SD_DE_10_도메인정의서.xlsx
+++ b/2.표준사전/3.KCURE_SD_DE_10_도메인정의서.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\의료정보원\스키마배포\2023-01-31_스키마통합\06.표준사전\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\의료정보원\스키마배포\2023-02-07_스키마통합\06.표준사전\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1492" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1542" uniqueCount="301">
   <si>
     <t>프로젝트명</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -948,6 +948,36 @@
   <si>
     <t>값VC100</t>
     <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEER코드</t>
+  </si>
+  <si>
+    <t>모집단구분코드</t>
+  </si>
+  <si>
+    <t>분화도코드</t>
+  </si>
+  <si>
+    <t>성별코드</t>
+  </si>
+  <si>
+    <t>외국인코드</t>
+  </si>
+  <si>
+    <t>직업분류코드</t>
+  </si>
+  <si>
+    <t>진단경로코드</t>
+  </si>
+  <si>
+    <t>진단방법코드</t>
+  </si>
+  <si>
+    <t>치료시행여부코드</t>
+  </si>
+  <si>
+    <t>환자구분코드</t>
   </si>
 </sst>
 </file>
@@ -1826,16 +1856,16 @@
     <xf numFmtId="49" fontId="18" fillId="5" borderId="28" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3325,7 +3355,7 @@
       <c r="C12" s="50"/>
       <c r="D12" s="51" t="str">
         <f ca="1">MID(CELL("filename"),FIND("[",CELL("filename"))+1,FIND("]",CELL("filename"))-FIND("[",CELL("filename"))-1)</f>
-        <v>KCURE_SD_DE_10_도메인정의서_v1.0_20230127.xlsx</v>
+        <v>KCURE_SD_DE_10_도메인정의서_v1.0_20230208.xlsx</v>
       </c>
       <c r="E12" s="52"/>
       <c r="F12" s="52"/>
@@ -3532,11 +3562,11 @@
     <tabColor indexed="45"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I207"/>
+  <dimension ref="A1:I217"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G45" sqref="G45"/>
+      <pane ySplit="4" topLeftCell="A190" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B224" sqref="B224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="16"/>
@@ -9105,6 +9135,236 @@
       </c>
       <c r="I207" s="46" t="s">
         <v>110</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9">
+      <c r="A208" s="46" t="s">
+        <v>291</v>
+      </c>
+      <c r="B208" s="46" t="s">
+        <v>291</v>
+      </c>
+      <c r="C208" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="D208" s="46">
+        <v>20</v>
+      </c>
+      <c r="E208" s="46"/>
+      <c r="F208" s="46"/>
+      <c r="G208" s="46"/>
+      <c r="H208" s="46" t="s">
+        <v>131</v>
+      </c>
+      <c r="I208" s="46" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9">
+      <c r="A209" s="46" t="s">
+        <v>292</v>
+      </c>
+      <c r="B209" s="46" t="s">
+        <v>292</v>
+      </c>
+      <c r="C209" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="D209" s="46">
+        <v>20</v>
+      </c>
+      <c r="E209" s="46"/>
+      <c r="F209" s="46"/>
+      <c r="G209" s="46"/>
+      <c r="H209" s="46" t="s">
+        <v>131</v>
+      </c>
+      <c r="I209" s="46" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9">
+      <c r="A210" s="46" t="s">
+        <v>293</v>
+      </c>
+      <c r="B210" s="46" t="s">
+        <v>293</v>
+      </c>
+      <c r="C210" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="D210" s="46">
+        <v>20</v>
+      </c>
+      <c r="E210" s="46"/>
+      <c r="F210" s="46"/>
+      <c r="G210" s="46"/>
+      <c r="H210" s="46" t="s">
+        <v>131</v>
+      </c>
+      <c r="I210" s="46" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9">
+      <c r="A211" s="46" t="s">
+        <v>294</v>
+      </c>
+      <c r="B211" s="46" t="s">
+        <v>294</v>
+      </c>
+      <c r="C211" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="D211" s="46">
+        <v>20</v>
+      </c>
+      <c r="E211" s="46"/>
+      <c r="F211" s="46"/>
+      <c r="G211" s="46"/>
+      <c r="H211" s="46" t="s">
+        <v>131</v>
+      </c>
+      <c r="I211" s="46" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9">
+      <c r="A212" s="46" t="s">
+        <v>295</v>
+      </c>
+      <c r="B212" s="46" t="s">
+        <v>295</v>
+      </c>
+      <c r="C212" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="D212" s="46">
+        <v>20</v>
+      </c>
+      <c r="E212" s="46"/>
+      <c r="F212" s="46"/>
+      <c r="G212" s="46"/>
+      <c r="H212" s="46" t="s">
+        <v>131</v>
+      </c>
+      <c r="I212" s="46" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9">
+      <c r="A213" s="46" t="s">
+        <v>296</v>
+      </c>
+      <c r="B213" s="46" t="s">
+        <v>296</v>
+      </c>
+      <c r="C213" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="D213" s="46">
+        <v>20</v>
+      </c>
+      <c r="E213" s="46"/>
+      <c r="F213" s="46"/>
+      <c r="G213" s="46"/>
+      <c r="H213" s="46" t="s">
+        <v>131</v>
+      </c>
+      <c r="I213" s="46" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9">
+      <c r="A214" s="46" t="s">
+        <v>297</v>
+      </c>
+      <c r="B214" s="46" t="s">
+        <v>297</v>
+      </c>
+      <c r="C214" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="D214" s="46">
+        <v>20</v>
+      </c>
+      <c r="E214" s="46"/>
+      <c r="F214" s="46"/>
+      <c r="G214" s="46"/>
+      <c r="H214" s="46" t="s">
+        <v>131</v>
+      </c>
+      <c r="I214" s="46" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9">
+      <c r="A215" s="46" t="s">
+        <v>298</v>
+      </c>
+      <c r="B215" s="46" t="s">
+        <v>298</v>
+      </c>
+      <c r="C215" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="D215" s="46">
+        <v>20</v>
+      </c>
+      <c r="E215" s="46"/>
+      <c r="F215" s="46"/>
+      <c r="G215" s="46"/>
+      <c r="H215" s="46" t="s">
+        <v>131</v>
+      </c>
+      <c r="I215" s="46" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9">
+      <c r="A216" s="46" t="s">
+        <v>299</v>
+      </c>
+      <c r="B216" s="46" t="s">
+        <v>299</v>
+      </c>
+      <c r="C216" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="D216" s="46">
+        <v>20</v>
+      </c>
+      <c r="E216" s="46"/>
+      <c r="F216" s="46"/>
+      <c r="G216" s="46"/>
+      <c r="H216" s="46" t="s">
+        <v>131</v>
+      </c>
+      <c r="I216" s="46" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9">
+      <c r="A217" s="46" t="s">
+        <v>300</v>
+      </c>
+      <c r="B217" s="46" t="s">
+        <v>300</v>
+      </c>
+      <c r="C217" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="D217" s="46">
+        <v>20</v>
+      </c>
+      <c r="E217" s="46"/>
+      <c r="F217" s="46"/>
+      <c r="G217" s="46"/>
+      <c r="H217" s="46" t="s">
+        <v>131</v>
+      </c>
+      <c r="I217" s="46" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -9160,268 +9420,283 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="27.5" customHeight="1">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
     </row>
     <row r="2" spans="1:5" ht="39" customHeight="1">
       <c r="A2" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
     </row>
     <row r="3" spans="1:5" ht="28.5" customHeight="1">
       <c r="A3" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
     </row>
     <row r="4" spans="1:5" ht="28.5" customHeight="1">
       <c r="A4" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
     </row>
     <row r="5" spans="1:5" ht="104.75" customHeight="1">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
     </row>
     <row r="6" spans="1:5" ht="57" customHeight="1">
-      <c r="A6" s="63"/>
-      <c r="B6" s="62" t="s">
+      <c r="A6" s="65"/>
+      <c r="B6" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
     </row>
     <row r="7" spans="1:5" ht="66.5" customHeight="1">
-      <c r="A7" s="63"/>
-      <c r="B7" s="62" t="s">
+      <c r="A7" s="65"/>
+      <c r="B7" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
     </row>
     <row r="8" spans="1:5" ht="47.75" customHeight="1">
-      <c r="A8" s="63"/>
-      <c r="B8" s="62" t="s">
+      <c r="A8" s="65"/>
+      <c r="B8" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
     </row>
     <row r="9" spans="1:5" ht="114" customHeight="1">
-      <c r="A9" s="63"/>
-      <c r="B9" s="62" t="s">
+      <c r="A9" s="65"/>
+      <c r="B9" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
     </row>
     <row r="10" spans="1:5" ht="66.5" customHeight="1">
-      <c r="A10" s="63"/>
-      <c r="B10" s="62" t="s">
+      <c r="A10" s="65"/>
+      <c r="B10" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
     </row>
     <row r="11" spans="1:5" ht="66.5" customHeight="1">
-      <c r="A11" s="63"/>
-      <c r="B11" s="62" t="s">
+      <c r="A11" s="65"/>
+      <c r="B11" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
     </row>
     <row r="12" spans="1:5" ht="57" customHeight="1">
-      <c r="A12" s="63" t="s">
+      <c r="A12" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="62" t="s">
+      <c r="B12" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
     </row>
     <row r="13" spans="1:5" ht="133.25" customHeight="1">
-      <c r="A13" s="63"/>
-      <c r="B13" s="62" t="s">
+      <c r="A13" s="65"/>
+      <c r="B13" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="62"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="62"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
     </row>
     <row r="14" spans="1:5" ht="66.5" customHeight="1">
-      <c r="A14" s="63"/>
-      <c r="B14" s="62" t="s">
+      <c r="A14" s="65"/>
+      <c r="B14" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="62"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
     </row>
     <row r="15" spans="1:5" ht="95" customHeight="1">
-      <c r="A15" s="63"/>
-      <c r="B15" s="62" t="s">
+      <c r="A15" s="65"/>
+      <c r="B15" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="62"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
     </row>
     <row r="16" spans="1:5" ht="57" customHeight="1">
-      <c r="A16" s="63" t="s">
+      <c r="A16" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="62" t="s">
+      <c r="B16" s="63" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="62"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
     </row>
     <row r="17" spans="1:5" ht="66.5" customHeight="1">
-      <c r="A17" s="63"/>
-      <c r="B17" s="62" t="s">
+      <c r="A17" s="65"/>
+      <c r="B17" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="62"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="62"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
     </row>
     <row r="18" spans="1:5" ht="57" customHeight="1">
-      <c r="A18" s="63"/>
-      <c r="B18" s="62" t="s">
+      <c r="A18" s="65"/>
+      <c r="B18" s="63" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="62"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="62"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="63"/>
     </row>
     <row r="19" spans="1:5" ht="28.5" customHeight="1">
-      <c r="A19" s="63"/>
-      <c r="B19" s="62" t="s">
+      <c r="A19" s="65"/>
+      <c r="B19" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="62"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="62"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
     </row>
     <row r="20" spans="1:5" ht="85.5" customHeight="1">
-      <c r="A20" s="63"/>
-      <c r="B20" s="62" t="s">
+      <c r="A20" s="65"/>
+      <c r="B20" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="62"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
     </row>
     <row r="21" spans="1:5" ht="19.25" customHeight="1">
-      <c r="A21" s="63"/>
-      <c r="B21" s="62" t="s">
+      <c r="A21" s="65"/>
+      <c r="B21" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="62"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="62"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
     </row>
     <row r="22" spans="1:5" ht="47.75" customHeight="1">
-      <c r="A22" s="63"/>
-      <c r="B22" s="62" t="s">
+      <c r="A22" s="65"/>
+      <c r="B22" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="62"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="62"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="63"/>
     </row>
     <row r="23" spans="1:5" ht="28.5" customHeight="1">
-      <c r="A23" s="63"/>
-      <c r="B23" s="62" t="s">
+      <c r="A23" s="65"/>
+      <c r="B23" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="62"/>
-      <c r="D23" s="62"/>
-      <c r="E23" s="62"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="63"/>
     </row>
     <row r="24" spans="1:5" ht="57" customHeight="1">
-      <c r="A24" s="63" t="s">
+      <c r="A24" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="62" t="s">
+      <c r="B24" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="62"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="62"/>
+      <c r="C24" s="63"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="63"/>
     </row>
     <row r="25" spans="1:5" ht="66.5" customHeight="1">
-      <c r="A25" s="63"/>
-      <c r="B25" s="62" t="s">
+      <c r="A25" s="65"/>
+      <c r="B25" s="63" t="s">
         <v>54</v>
       </c>
-      <c r="C25" s="62"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="62"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="63"/>
     </row>
     <row r="26" spans="1:5" ht="66.5" customHeight="1">
       <c r="A26" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="B26" s="62" t="s">
+      <c r="B26" s="63" t="s">
         <v>126</v>
       </c>
-      <c r="C26" s="62"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="62"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="63"/>
     </row>
     <row r="27" spans="1:5" ht="66.5" customHeight="1">
       <c r="A27" s="44" t="s">
         <v>125</v>
       </c>
-      <c r="B27" s="62" t="s">
+      <c r="B27" s="63" t="s">
         <v>127</v>
       </c>
-      <c r="C27" s="62"/>
-      <c r="D27" s="62"/>
-      <c r="E27" s="62"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="A16:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B23:E23"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="B18:E18"/>
     <mergeCell ref="B19:E19"/>
@@ -9438,21 +9713,6 @@
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="A5:A11"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A16:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B26:E26"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
